--- a/biology/Médecine/Harvard_Medical_School/Harvard_Medical_School.xlsx
+++ b/biology/Médecine/Harvard_Medical_School/Harvard_Medical_School.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Harvard Medical School (HMS) est la faculté de médecine de l’université Harvard située à Boston dans le Massachusetts. Elle a été fondée en 1782 et est considérée comme l'une des plus prestigieuses des États-Unis[1]. Elle se trouve dans la Longwood Medical and Academic Area de Boston.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Harvard Medical School (HMS) est la faculté de médecine de l’université Harvard située à Boston dans le Massachusetts. Elle a été fondée en 1782 et est considérée comme l'une des plus prestigieuses des États-Unis. Elle se trouve dans la Longwood Medical and Academic Area de Boston.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La faculté de médecine de l'université Harvard est la troisième plus ancienne aux États-Unis, fondée le 19 septembre 1782 par John Warren, Benjamin Waterhouse et Aaron Dexter.
 </t>
@@ -544,10 +558,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Professeurs
-Alice Hamilton
-Monica Bertagnolli fut titulaire de la chaire de professeure de chirurgie Richard E. Wilson. Elle est aujourd'hui la président des National Institutes of Health[2].
-Étudiants</t>
+          <t>Professeurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alice Hamilton
+Monica Bertagnolli fut titulaire de la chaire de professeure de chirurgie Richard E. Wilson. Elle est aujourd'hui la président des National Institutes of Health.</t>
         </is>
       </c>
     </row>
